--- a/data/trans_dic/P20D2_R_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P20D2_R_2023-Clase-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.9170995157830916</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.4474628313059856</v>
+        <v>0.4474628313059857</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.8168439377316783</v>
+        <v>0.8168439377316781</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.634467781926081</v>
+        <v>0.647503189481046</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.09855422295537063</v>
+        <v>0.09928638232991679</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5558596153383519</v>
+        <v>0.5765338451699317</v>
       </c>
     </row>
     <row r="6">
@@ -601,10 +601,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8142125155362088</v>
+        <v>0.8163642232559113</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9459013509610502</v>
+        <v>0.9592875894088536</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.7389337447241584</v>
+        <v>0.7389337447241585</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.06910497650029103</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3276443424765396</v>
+        <v>0.3656978213598747</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1713038042362589</v>
+        <v>0.1781287695087881</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3332735839577205</v>
+        <v>0.3251930832147258</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6133284234914721</v>
+        <v>0.603470330820975</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.6846988468286436</v>
+        <v>0.6846988468286437</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.1385496411877232</v>
+        <v>0.1385496411877231</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.5696821109453797</v>
+        <v>0.5696821109453799</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4072159271011803</v>
+        <v>0.4173217437743673</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3470457888594013</v>
+        <v>0.3560814080825105</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8922088620590496</v>
+        <v>0.8890537258388685</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5901712713526664</v>
+        <v>0.4983426938834029</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7604689242538658</v>
+        <v>0.758469938022759</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.5319465959266092</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.6173586083783966</v>
+        <v>0.6173586083783968</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4061439164247859</v>
+        <v>0.3970399807544343</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.28700043624584</v>
+        <v>0.2742933683300223</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.430916684110438</v>
+        <v>0.4381731115760445</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8718671626145515</v>
+        <v>0.8753439572291981</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7863010380068856</v>
+        <v>0.7591444250589359</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7571980286885065</v>
+        <v>0.7727556631150423</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.6161477943498174</v>
+        <v>0.6161477943498173</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.4456003127410691</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3266362103025943</v>
+        <v>0.3379227701915475</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2535691586771102</v>
+        <v>0.2376415202097395</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3626374553084134</v>
+        <v>0.3739664391488576</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8395362371436104</v>
+        <v>0.8365112064906599</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6408694028105633</v>
+        <v>0.6422464404138174</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6886376339791397</v>
+        <v>0.6997144045389815</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.6796106432862197</v>
+        <v>0.6796106432862195</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.6491374101323839</v>
@@ -857,10 +857,10 @@
       </c>
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="n">
-        <v>0.3396845279787042</v>
+        <v>0.3849348725377898</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.365433986730044</v>
+        <v>0.3598495567322987</v>
       </c>
     </row>
     <row r="21">
@@ -872,10 +872,10 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.9146468398984809</v>
+        <v>0.93284011047177</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8939498669283558</v>
+        <v>0.905688948025083</v>
       </c>
     </row>
     <row r="22">
@@ -890,13 +890,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.718098202446821</v>
+        <v>0.7180982024468212</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.41496926146312</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.5825468419754312</v>
+        <v>0.5825468419754313</v>
       </c>
     </row>
     <row r="23">
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5990664494158288</v>
+        <v>0.6105251459813292</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3015175824941344</v>
+        <v>0.2987964858130926</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4947905727772142</v>
+        <v>0.4939975555628019</v>
       </c>
     </row>
     <row r="24">
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8077131969672614</v>
+        <v>0.8148163878618275</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5579389706201313</v>
+        <v>0.5558264838279845</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6610616191534447</v>
+        <v>0.6657889648857095</v>
       </c>
     </row>
     <row r="25">
@@ -1074,13 +1074,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>8835</v>
+        <v>9016</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>9841</v>
+        <v>10207</v>
       </c>
     </row>
     <row r="7">
@@ -1094,10 +1094,10 @@
         <v>13925</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>3077</v>
+        <v>3085</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>16746</v>
+        <v>16983</v>
       </c>
     </row>
     <row r="8">
@@ -1146,13 +1146,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2528</v>
+        <v>2822</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3001</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="11">
@@ -1166,10 +1166,10 @@
         <v>7717</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>3266</v>
+        <v>3187</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>10743</v>
+        <v>10570</v>
       </c>
     </row>
     <row r="12">
@@ -1218,13 +1218,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>7191</v>
+        <v>7369</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>7763</v>
+        <v>7966</v>
       </c>
     </row>
     <row r="15">
@@ -1235,13 +1235,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>15756</v>
+        <v>15700</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2780</v>
+        <v>2348</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>17012</v>
+        <v>16967</v>
       </c>
     </row>
     <row r="16">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5863</v>
+        <v>5731</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3023</v>
+        <v>2889</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>10760</v>
+        <v>10941</v>
       </c>
     </row>
     <row r="19">
@@ -1307,13 +1307,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>12585</v>
+        <v>12636</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>8283</v>
+        <v>7997</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>18906</v>
+        <v>19295</v>
       </c>
     </row>
     <row r="20">
@@ -1362,13 +1362,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4560</v>
+        <v>4717</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>3939</v>
+        <v>3692</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>10696</v>
+        <v>11030</v>
       </c>
     </row>
     <row r="23">
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>11720</v>
+        <v>11678</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>9956</v>
+        <v>9977</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>20311</v>
+        <v>20638</v>
       </c>
     </row>
     <row r="24">
@@ -1435,10 +1435,10 @@
       </c>
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="n">
-        <v>3672</v>
+        <v>4161</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>4135</v>
+        <v>4072</v>
       </c>
     </row>
     <row r="27">
@@ -1450,10 +1450,10 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>9886</v>
+        <v>10083</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>10116</v>
+        <v>10249</v>
       </c>
     </row>
     <row r="28">
@@ -1502,13 +1502,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>40858</v>
+        <v>41639</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>16634</v>
+        <v>16484</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>61042</v>
+        <v>60944</v>
       </c>
     </row>
     <row r="31">
@@ -1519,13 +1519,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>55088</v>
+        <v>55572</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>30780</v>
+        <v>30664</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>81555</v>
+        <v>82138</v>
       </c>
     </row>
     <row r="32">
